--- a/PlainTimeInvariant/output/redForecastPercentiles.xlsx
+++ b/PlainTimeInvariant/output/redForecastPercentiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="220" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="286" uniqueCount="22">
   <si>
     <t>Time</t>
   </si>
@@ -134,20 +134,20 @@
     <col min="2" max="2" width="14.42578125" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="14.42578125" customWidth="true"/>
+    <col min="5" max="5" width="13.42578125" customWidth="true"/>
     <col min="6" max="6" width="12.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="12.42578125" customWidth="true"/>
-    <col min="9" max="9" width="13.7109375" customWidth="true"/>
+    <col min="8" max="8" width="13.42578125" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="11" max="11" width="12.42578125" customWidth="true"/>
-    <col min="12" max="12" width="15.42578125" customWidth="true"/>
+    <col min="12" max="12" width="16.28515625" customWidth="true"/>
     <col min="13" max="13" width="12.28515625" customWidth="true"/>
     <col min="14" max="14" width="13.42578125" customWidth="true"/>
     <col min="15" max="15" width="15.42578125" customWidth="true"/>
     <col min="16" max="16" width="12.7109375" customWidth="true"/>
     <col min="17" max="17" width="12.42578125" customWidth="true"/>
-    <col min="18" max="18" width="15.42578125" customWidth="true"/>
+    <col min="18" max="18" width="14.7109375" customWidth="true"/>
     <col min="19" max="19" width="12" customWidth="true"/>
     <col min="20" max="20" width="5.7109375" customWidth="true"/>
     <col min="21" max="21" width="5.7109375" customWidth="true"/>
@@ -315,58 +315,58 @@
         <v>42005</v>
       </c>
       <c r="B4" s="0">
-        <v>1.258686644386696</v>
+        <v>1.287926030504875</v>
       </c>
       <c r="C4" s="0">
-        <v>2.4409557450742736</v>
+        <v>2.4415147031690476</v>
       </c>
       <c r="D4" s="0">
-        <v>3.714594380137648</v>
+        <v>3.5907416469299998</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.097068341266575098</v>
+        <v>-0.065031414299834389</v>
       </c>
       <c r="F4" s="0">
-        <v>0.67419223804519146</v>
+        <v>0.77681572247201824</v>
       </c>
       <c r="G4" s="0">
-        <v>1.5358820144044159</v>
+        <v>1.5829875798386011</v>
       </c>
       <c r="H4" s="0">
-        <v>-1.0759199686036147</v>
+        <v>-0.99438484780559744</v>
       </c>
       <c r="I4" s="0">
-        <v>0.189737812597742</v>
+        <v>0.17903990915453741</v>
       </c>
       <c r="J4" s="0">
-        <v>1.2748902854913684</v>
+        <v>1.2775789381513971</v>
       </c>
       <c r="K4" s="0">
-        <v>-1.1461217609736642</v>
+        <v>-1.1286304409762349</v>
       </c>
       <c r="L4" s="0">
-        <v>-0.0071069150231658461</v>
+        <v>-6.5227366810399103e-05</v>
       </c>
       <c r="M4" s="0">
-        <v>1.2490079533236158</v>
+        <v>1.1232451076507306</v>
       </c>
       <c r="N4" s="0">
-        <v>-0.8296769235586372</v>
+        <v>-0.76440066825057928</v>
       </c>
       <c r="O4" s="0">
-        <v>-0.023845984660055809</v>
+        <v>0.035812787296856406</v>
       </c>
       <c r="P4" s="0">
-        <v>0.79625756750735732</v>
+        <v>0.83243241720024763</v>
       </c>
       <c r="Q4" s="0">
-        <v>-1.1342453797004148</v>
+        <v>-1.1405306882481534</v>
       </c>
       <c r="R4" s="0">
-        <v>0.038271251947713594</v>
+        <v>0.054138983325050759</v>
       </c>
       <c r="S4" s="0">
-        <v>1.1339473694325364</v>
+        <v>1.1573037439225877</v>
       </c>
       <c r="T4" s="0">
         <v>94.319999999999993</v>
@@ -383,58 +383,58 @@
         <v>42095</v>
       </c>
       <c r="B5" s="0">
-        <v>0.72672401130098052</v>
+        <v>0.77987691590676733</v>
       </c>
       <c r="C5" s="0">
-        <v>2.199731467908725</v>
+        <v>2.2602358276508774</v>
       </c>
       <c r="D5" s="0">
-        <v>3.933283392463919</v>
+        <v>3.808783824948287</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.34219650481547526</v>
+        <v>-0.23276788499545703</v>
       </c>
       <c r="F5" s="0">
-        <v>0.83635513288997854</v>
+        <v>0.8968363405694646</v>
       </c>
       <c r="G5" s="0">
-        <v>2.0261375282617848</v>
+        <v>1.9544085092816805</v>
       </c>
       <c r="H5" s="0">
-        <v>-1.502428705042048</v>
+        <v>-1.3909880524343501</v>
       </c>
       <c r="I5" s="0">
-        <v>0.1742350891282817</v>
+        <v>0.12068087916491255</v>
       </c>
       <c r="J5" s="0">
-        <v>1.8085652182501124</v>
+        <v>1.7328241177943857</v>
       </c>
       <c r="K5" s="0">
-        <v>-1.1680603412538721</v>
+        <v>-1.1386133486271781</v>
       </c>
       <c r="L5" s="0">
-        <v>0.015484232945900293</v>
+        <v>0.031191022884007942</v>
       </c>
       <c r="M5" s="0">
-        <v>1.0802878530493722</v>
+        <v>1.2110143713137234</v>
       </c>
       <c r="N5" s="0">
-        <v>-0.7788588580451834</v>
+        <v>-0.78494996234915093</v>
       </c>
       <c r="O5" s="0">
-        <v>-0.040153591787263208</v>
+        <v>-0.018498863441959196</v>
       </c>
       <c r="P5" s="0">
-        <v>0.77623904038854707</v>
+        <v>0.73649603632478422</v>
       </c>
       <c r="Q5" s="0">
-        <v>-1.1252124488645661</v>
+        <v>-1.0365061339964006</v>
       </c>
       <c r="R5" s="0">
-        <v>0.028369369303118581</v>
+        <v>-0.028680216230387384</v>
       </c>
       <c r="S5" s="0">
-        <v>1.1199113358446919</v>
+        <v>1.0811721357441371</v>
       </c>
       <c r="T5" s="0">
         <v>94.319999999999993</v>
@@ -451,58 +451,58 @@
         <v>42186</v>
       </c>
       <c r="B6" s="0">
-        <v>0.37907500931416949</v>
+        <v>0.46765410353464087</v>
       </c>
       <c r="C6" s="0">
-        <v>2.0822304549794786</v>
+        <v>2.0916945612240578</v>
       </c>
       <c r="D6" s="0">
-        <v>3.8274707922931928</v>
+        <v>3.7895071835183622</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.47178359243091039</v>
+        <v>-0.4236519022535184</v>
       </c>
       <c r="F6" s="0">
-        <v>0.93377981694858292</v>
+        <v>1.0306968089286901</v>
       </c>
       <c r="G6" s="0">
-        <v>2.5387744487660289</v>
+        <v>2.3633051185486282</v>
       </c>
       <c r="H6" s="0">
-        <v>-1.9017200579473554</v>
+        <v>-1.8123482600892562</v>
       </c>
       <c r="I6" s="0">
-        <v>0.1857783723281097</v>
+        <v>0.15553860019444199</v>
       </c>
       <c r="J6" s="0">
-        <v>2.0608334610539676</v>
+        <v>1.9614952511914456</v>
       </c>
       <c r="K6" s="0">
-        <v>-1.1386586770661111</v>
+        <v>-1.1076714340358784</v>
       </c>
       <c r="L6" s="0">
-        <v>-0.021330885938702783</v>
+        <v>0.0053591882637038313</v>
       </c>
       <c r="M6" s="0">
-        <v>1.1257266475430607</v>
+        <v>1.1279372137621611</v>
       </c>
       <c r="N6" s="0">
-        <v>-0.80079605451619806</v>
+        <v>-0.7799954191882601</v>
       </c>
       <c r="O6" s="0">
-        <v>-0.027277718443288128</v>
+        <v>-0.0074909206234657164</v>
       </c>
       <c r="P6" s="0">
-        <v>0.81136410410051285</v>
+        <v>0.82984689877322704</v>
       </c>
       <c r="Q6" s="0">
-        <v>-1.0868853556069169</v>
+        <v>-1.1041462619399762</v>
       </c>
       <c r="R6" s="0">
-        <v>-0.0044583909175852365</v>
+        <v>-0.010835551905813548</v>
       </c>
       <c r="S6" s="0">
-        <v>1.126697172594133</v>
+        <v>1.0351342670987369</v>
       </c>
       <c r="T6" s="0">
         <v>94.319999999999993</v>
@@ -519,58 +519,58 @@
         <v>42278</v>
       </c>
       <c r="B7" s="0">
-        <v>0.1574158975761431</v>
+        <v>0.098162112530855328</v>
       </c>
       <c r="C7" s="0">
-        <v>1.9540478189239412</v>
+        <v>1.9782531856425829</v>
       </c>
       <c r="D7" s="0">
-        <v>3.8929708696018812</v>
+        <v>3.7245267221514182</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.63584860343729155</v>
+        <v>-0.564386616261777</v>
       </c>
       <c r="F7" s="0">
-        <v>1.018095700219708</v>
+        <v>1.1322969277183068</v>
       </c>
       <c r="G7" s="0">
-        <v>2.6741763039185749</v>
+        <v>2.6900441199145484</v>
       </c>
       <c r="H7" s="0">
-        <v>-2.1447968033865523</v>
+        <v>-2.0895751047162614</v>
       </c>
       <c r="I7" s="0">
-        <v>0.18792868274544916</v>
+        <v>0.10077129646809738</v>
       </c>
       <c r="J7" s="0">
-        <v>2.3078836852336106</v>
+        <v>2.2964168978661803</v>
       </c>
       <c r="K7" s="0">
-        <v>-1.0933751168471355</v>
+        <v>-1.1514643727014449</v>
       </c>
       <c r="L7" s="0">
-        <v>0.020266071395551422</v>
+        <v>-0.0011892002495166687</v>
       </c>
       <c r="M7" s="0">
-        <v>1.1567918066314107</v>
+        <v>1.1599975706842627</v>
       </c>
       <c r="N7" s="0">
-        <v>-0.81076247543584801</v>
+        <v>-0.7882031169439333</v>
       </c>
       <c r="O7" s="0">
-        <v>-0.0061987355531329252</v>
+        <v>-0.0076238994057261289</v>
       </c>
       <c r="P7" s="0">
-        <v>0.80384329946204192</v>
+        <v>0.78700354854234256</v>
       </c>
       <c r="Q7" s="0">
-        <v>-1.1060883467328875</v>
+        <v>-1.1840809069814018</v>
       </c>
       <c r="R7" s="0">
-        <v>-0.027590418228369364</v>
+        <v>-0.046945044112651421</v>
       </c>
       <c r="S7" s="0">
-        <v>1.1406847221973839</v>
+        <v>1.055450121221845</v>
       </c>
       <c r="T7" s="0">
         <v>94.319999999999993</v>
@@ -587,58 +587,58 @@
         <v>42370</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.034204605912209057</v>
+        <v>-0.032390912831757962</v>
       </c>
       <c r="C8" s="0">
-        <v>1.7681385096001774</v>
+        <v>1.8854554834734676</v>
       </c>
       <c r="D8" s="0">
-        <v>3.7171897651911734</v>
+        <v>3.667090190832734</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.85029852281495311</v>
+        <v>-0.61569399970117367</v>
       </c>
       <c r="F8" s="0">
-        <v>1.0884026000160936</v>
+        <v>1.1775500126246721</v>
       </c>
       <c r="G8" s="0">
-        <v>2.9678467222750959</v>
+        <v>2.936891922343694</v>
       </c>
       <c r="H8" s="0">
-        <v>-2.2929187891068876</v>
+        <v>-2.3737531014336986</v>
       </c>
       <c r="I8" s="0">
-        <v>0.14621759819671115</v>
+        <v>0.10157723956250075</v>
       </c>
       <c r="J8" s="0">
-        <v>2.6077044711540323</v>
+        <v>2.5729048420926235</v>
       </c>
       <c r="K8" s="0">
-        <v>-1.21752273544803</v>
+        <v>-1.1405721983113537</v>
       </c>
       <c r="L8" s="0">
-        <v>-0.070481718926258749</v>
+        <v>0.026493025305748187</v>
       </c>
       <c r="M8" s="0">
-        <v>1.1297048866097241</v>
+        <v>1.1295083453491617</v>
       </c>
       <c r="N8" s="0">
-        <v>-0.86630130090702573</v>
+        <v>-0.81648490765832626</v>
       </c>
       <c r="O8" s="0">
-        <v>0.016133103662503569</v>
+        <v>-0.012416085396967962</v>
       </c>
       <c r="P8" s="0">
-        <v>0.84383670295884738</v>
+        <v>0.81841005747434203</v>
       </c>
       <c r="Q8" s="0">
-        <v>-1.1665080975501851</v>
+        <v>-1.1100896540043197</v>
       </c>
       <c r="R8" s="0">
-        <v>0.0022122076624437152</v>
+        <v>0.0067166907612286261</v>
       </c>
       <c r="S8" s="0">
-        <v>1.1552517389795836</v>
+        <v>1.1128262491110603</v>
       </c>
       <c r="T8" s="0">
         <v>94.319999999999993</v>
@@ -655,58 +655,58 @@
         <v>42461</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.1604978256164038</v>
+        <v>-0.16380609749614172</v>
       </c>
       <c r="C9" s="0">
-        <v>1.6696348956914728</v>
+        <v>1.7771204417278388</v>
       </c>
       <c r="D9" s="0">
-        <v>3.6314493840329449</v>
+        <v>3.6987265758041419</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.88192514145482104</v>
+        <v>-0.76913455959459198</v>
       </c>
       <c r="F9" s="0">
-        <v>1.068296945041308</v>
+        <v>1.2712659601170881</v>
       </c>
       <c r="G9" s="0">
-        <v>3.2607219170384729</v>
+        <v>3.0656199431563023</v>
       </c>
       <c r="H9" s="0">
-        <v>-2.6030243406601477</v>
+        <v>-2.6480789103282945</v>
       </c>
       <c r="I9" s="0">
-        <v>0.096427879121811416</v>
+        <v>0.13827260687528836</v>
       </c>
       <c r="J9" s="0">
-        <v>2.9620586107021829</v>
+        <v>2.8969063703663505</v>
       </c>
       <c r="K9" s="0">
-        <v>-1.2779566993852223</v>
+        <v>-1.2213469553819203</v>
       </c>
       <c r="L9" s="0">
-        <v>0.015060506946197077</v>
+        <v>0.00537800175401451</v>
       </c>
       <c r="M9" s="0">
-        <v>1.1972173433937625</v>
+        <v>1.1466559620008225</v>
       </c>
       <c r="N9" s="0">
-        <v>-0.78419721961324074</v>
+        <v>-0.83529277272308178</v>
       </c>
       <c r="O9" s="0">
-        <v>-0.026684143274121351</v>
+        <v>0.0090996873331517028</v>
       </c>
       <c r="P9" s="0">
-        <v>0.81854869858631329</v>
+        <v>0.83265815150570255</v>
       </c>
       <c r="Q9" s="0">
-        <v>-1.0897606572857259</v>
+        <v>-1.1061261160787605</v>
       </c>
       <c r="R9" s="0">
-        <v>-0.0084598508329720712</v>
+        <v>0.073603833487749196</v>
       </c>
       <c r="S9" s="0">
-        <v>1.1132244347068003</v>
+        <v>1.144627619540195</v>
       </c>
       <c r="T9" s="0">
         <v>94.319999999999993</v>
@@ -723,58 +723,58 @@
         <v>42552</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.28505338454478063</v>
+        <v>-0.20343045679853367</v>
       </c>
       <c r="C10" s="0">
-        <v>1.6361561650957648</v>
+        <v>1.7742514889721952</v>
       </c>
       <c r="D10" s="0">
-        <v>3.6186351909742456</v>
+        <v>3.7200927966931561</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.98623939477179556</v>
+        <v>-0.78610290281439099</v>
       </c>
       <c r="F10" s="0">
-        <v>1.1227786735501362</v>
+        <v>1.3540411429882639</v>
       </c>
       <c r="G10" s="0">
-        <v>3.3759701857154178</v>
+        <v>3.3196782819874708</v>
       </c>
       <c r="H10" s="0">
-        <v>-2.862322763742247</v>
+        <v>-2.7483136543722235</v>
       </c>
       <c r="I10" s="0">
-        <v>0.057359183407787701</v>
+        <v>0.22656662865084148</v>
       </c>
       <c r="J10" s="0">
-        <v>3.2873072385301558</v>
+        <v>3.1522465272074118</v>
       </c>
       <c r="K10" s="0">
-        <v>-1.0969666673833656</v>
+        <v>-1.1239510671008304</v>
       </c>
       <c r="L10" s="0">
-        <v>0.006693223656559652</v>
+        <v>0.049906922779191967</v>
       </c>
       <c r="M10" s="0">
-        <v>1.1318566215270438</v>
+        <v>1.1793082268368702</v>
       </c>
       <c r="N10" s="0">
-        <v>-0.84885068313118561</v>
+        <v>-0.78151202769472161</v>
       </c>
       <c r="O10" s="0">
-        <v>-0.034253272792437402</v>
+        <v>0.044748760530409618</v>
       </c>
       <c r="P10" s="0">
-        <v>0.82729223321602419</v>
+        <v>0.85675051520551504</v>
       </c>
       <c r="Q10" s="0">
-        <v>-1.1029303415225071</v>
+        <v>-1.075755483739524</v>
       </c>
       <c r="R10" s="0">
-        <v>0.011611548095592283</v>
+        <v>0.014664879791745654</v>
       </c>
       <c r="S10" s="0">
-        <v>1.1075311648367734</v>
+        <v>1.1558003913160402</v>
       </c>
       <c r="T10" s="0">
         <v>94.319999999999993</v>
@@ -791,58 +791,58 @@
         <v>42644</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.2835494624002487</v>
+        <v>-0.20897018764908182</v>
       </c>
       <c r="C11" s="0">
-        <v>1.5594317234979553</v>
+        <v>1.5943133860892256</v>
       </c>
       <c r="D11" s="0">
-        <v>3.5360665714280768</v>
+        <v>3.6256989453251234</v>
       </c>
       <c r="E11" s="0">
-        <v>-1.1686588135481411</v>
+        <v>-0.89519378675820227</v>
       </c>
       <c r="F11" s="0">
-        <v>1.1595582743200881</v>
+        <v>1.3719268558600808</v>
       </c>
       <c r="G11" s="0">
-        <v>3.5014012482745778</v>
+        <v>3.4869496524440042</v>
       </c>
       <c r="H11" s="0">
-        <v>-3.2061467394072647</v>
+        <v>-2.9650271188852164</v>
       </c>
       <c r="I11" s="0">
-        <v>0.0027069841455160115</v>
+        <v>0.2927648242602402</v>
       </c>
       <c r="J11" s="0">
-        <v>3.6374641433858761</v>
+        <v>3.403296566686175</v>
       </c>
       <c r="K11" s="0">
-        <v>-1.1223216490780759</v>
+        <v>-1.110135235927534</v>
       </c>
       <c r="L11" s="0">
-        <v>-0.020012065613787169</v>
+        <v>0.035094733676666615</v>
       </c>
       <c r="M11" s="0">
-        <v>1.1440271778121904</v>
+        <v>1.0866853887720613</v>
       </c>
       <c r="N11" s="0">
-        <v>-0.87062965754573685</v>
+        <v>-0.76890003804316331</v>
       </c>
       <c r="O11" s="0">
-        <v>-0.055525334132539544</v>
+        <v>0.011264926294935626</v>
       </c>
       <c r="P11" s="0">
-        <v>0.76354208780655841</v>
+        <v>0.75660576278948422</v>
       </c>
       <c r="Q11" s="0">
-        <v>-1.1619433014875626</v>
+        <v>-1.1059252507489261</v>
       </c>
       <c r="R11" s="0">
-        <v>-0.010288435014382716</v>
+        <v>0.024387511039163222</v>
       </c>
       <c r="S11" s="0">
-        <v>1.054734152201896</v>
+        <v>1.1468509058515965</v>
       </c>
       <c r="T11" s="0">
         <v>94.319999999999993</v>

--- a/PlainTimeInvariant/output/redForecastPercentiles.xlsx
+++ b/PlainTimeInvariant/output/redForecastPercentiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="286" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="448" uniqueCount="36">
   <si>
     <t>Time</t>
   </si>
@@ -79,6 +79,48 @@
   </si>
   <si>
     <t>Oil_3</t>
+  </si>
+  <si>
+    <t>GDP_4</t>
+  </si>
+  <si>
+    <t>GDP_5</t>
+  </si>
+  <si>
+    <t>CPI_4</t>
+  </si>
+  <si>
+    <t>CPI_5</t>
+  </si>
+  <si>
+    <t>STN_4</t>
+  </si>
+  <si>
+    <t>STN_5</t>
+  </si>
+  <si>
+    <t>GDP_resid_4</t>
+  </si>
+  <si>
+    <t>GDP_resid_5</t>
+  </si>
+  <si>
+    <t>CPI_resid_4</t>
+  </si>
+  <si>
+    <t>CPI_resid_5</t>
+  </si>
+  <si>
+    <t>STN_resid_4</t>
+  </si>
+  <si>
+    <t>STN_resid_5</t>
+  </si>
+  <si>
+    <t>Oil_4</t>
+  </si>
+  <si>
+    <t>Oil_5</t>
   </si>
 </sst>
 </file>
@@ -124,34 +166,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="13.42578125" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="13.42578125" customWidth="true"/>
     <col min="6" max="6" width="12.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="13.42578125" customWidth="true"/>
-    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.42578125" customWidth="true"/>
+    <col min="9" max="9" width="14.42578125" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="11" max="11" width="12.42578125" customWidth="true"/>
-    <col min="12" max="12" width="16.28515625" customWidth="true"/>
+    <col min="12" max="12" width="15.42578125" customWidth="true"/>
     <col min="13" max="13" width="12.28515625" customWidth="true"/>
     <col min="14" max="14" width="13.42578125" customWidth="true"/>
     <col min="15" max="15" width="15.42578125" customWidth="true"/>
     <col min="16" max="16" width="12.7109375" customWidth="true"/>
     <col min="17" max="17" width="12.42578125" customWidth="true"/>
-    <col min="18" max="18" width="14.7109375" customWidth="true"/>
+    <col min="18" max="18" width="14.42578125" customWidth="true"/>
     <col min="19" max="19" width="12" customWidth="true"/>
     <col min="20" max="20" width="5.7109375" customWidth="true"/>
     <col min="21" max="21" width="5.7109375" customWidth="true"/>
     <col min="22" max="22" width="5.7109375" customWidth="true"/>
+    <col min="23" max="23" width="13.42578125" customWidth="true"/>
+    <col min="24" max="24" width="15.42578125" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.42578125" customWidth="true"/>
+    <col min="28" max="28" width="13.42578125" customWidth="true"/>
+    <col min="29" max="29" width="15.42578125" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12" customWidth="true"/>
+    <col min="32" max="32" width="5.7109375" customWidth="true"/>
+    <col min="33" max="33" width="5.7109375" customWidth="true"/>
+    <col min="34" max="34" width="5.7109375" customWidth="true"/>
+    <col min="35" max="35" width="5.7109375" customWidth="true"/>
+    <col min="36" max="36" width="5.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -220,6 +276,48 @@
       </c>
       <c r="V1" s="0" t="s">
         <v>21</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -265,6 +363,20 @@
       <c r="T2" s="0"/>
       <c r="U2" s="0"/>
       <c r="V2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="0"/>
+      <c r="AF2" s="0"/>
+      <c r="AG2" s="0"/>
+      <c r="AH2" s="0"/>
+      <c r="AI2" s="0"/>
+      <c r="AJ2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" s="1">
@@ -309,64 +421,78 @@
       <c r="T3" s="0"/>
       <c r="U3" s="0"/>
       <c r="V3" s="0"/>
+      <c r="W3" s="0"/>
+      <c r="X3" s="0"/>
+      <c r="Y3" s="0"/>
+      <c r="Z3" s="0"/>
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="0"/>
+      <c r="AC3" s="0"/>
+      <c r="AD3" s="0"/>
+      <c r="AE3" s="0"/>
+      <c r="AF3" s="0"/>
+      <c r="AG3" s="0"/>
+      <c r="AH3" s="0"/>
+      <c r="AI3" s="0"/>
+      <c r="AJ3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <v>42005</v>
       </c>
       <c r="B4" s="0">
-        <v>1.287926030504875</v>
+        <v>1.3804929719859862</v>
       </c>
       <c r="C4" s="0">
-        <v>2.4415147031690476</v>
+        <v>2.6712353095540942</v>
       </c>
       <c r="D4" s="0">
-        <v>3.5907416469299998</v>
+        <v>3.9860419292297165</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.065031414299834389</v>
+        <v>-0.22427325886678545</v>
       </c>
       <c r="F4" s="0">
-        <v>0.77681572247201824</v>
+        <v>0.56032552082633891</v>
       </c>
       <c r="G4" s="0">
-        <v>1.5829875798386011</v>
+        <v>1.4337993451505584</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.99438484780559744</v>
+        <v>-1.1833302922485496</v>
       </c>
       <c r="I4" s="0">
-        <v>0.17903990915453741</v>
+        <v>0.11175402983503617</v>
       </c>
       <c r="J4" s="0">
-        <v>1.2775789381513971</v>
+        <v>1.2630973025463197</v>
       </c>
       <c r="K4" s="0">
-        <v>-1.1286304409762349</v>
+        <v>-1.2184691074385363</v>
       </c>
       <c r="L4" s="0">
-        <v>-6.5227366810399103e-05</v>
+        <v>0.065710255529169204</v>
       </c>
       <c r="M4" s="0">
-        <v>1.1232451076507306</v>
+        <v>1.3547519875169978</v>
       </c>
       <c r="N4" s="0">
-        <v>-0.76440066825057928</v>
+        <v>-0.79785116093543718</v>
       </c>
       <c r="O4" s="0">
-        <v>0.035812787296856406</v>
+        <v>-0.0011259087623435183</v>
       </c>
       <c r="P4" s="0">
-        <v>0.83243241720024763</v>
+        <v>0.82852104346399713</v>
       </c>
       <c r="Q4" s="0">
-        <v>-1.1405306882481534</v>
+        <v>-1.1670740856409354</v>
       </c>
       <c r="R4" s="0">
-        <v>0.054138983325050759</v>
+        <v>0.054482640437557864</v>
       </c>
       <c r="S4" s="0">
-        <v>1.1573037439225877</v>
+        <v>1.1636617078193696</v>
       </c>
       <c r="T4" s="0">
         <v>94.319999999999993</v>
@@ -375,6 +501,48 @@
         <v>94.319999999999993</v>
       </c>
       <c r="V4" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="W4" s="0">
+        <v>-0.53586068697511413</v>
+      </c>
+      <c r="X4" s="0">
+        <v>-0.028077684702698613</v>
+      </c>
+      <c r="Y4" s="0">
+        <v>0.48735394752696937</v>
+      </c>
+      <c r="Z4" s="0">
+        <v>0.72429012928832481</v>
+      </c>
+      <c r="AA4" s="0">
+        <v>-1.1011303888456259</v>
+      </c>
+      <c r="AB4" s="0">
+        <v>-0.74747440437722756</v>
+      </c>
+      <c r="AC4" s="0">
+        <v>-0.086815095078994708</v>
+      </c>
+      <c r="AD4" s="0">
+        <v>0.67923950852977322</v>
+      </c>
+      <c r="AE4" s="0">
+        <v>1.0467621784547085</v>
+      </c>
+      <c r="AF4" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AG4" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AH4" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AI4" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AJ4" s="0">
         <v>94.319999999999993</v>
       </c>
     </row>
@@ -383,58 +551,58 @@
         <v>42095</v>
       </c>
       <c r="B5" s="0">
-        <v>0.77987691590676733</v>
+        <v>0.86758638327104087</v>
       </c>
       <c r="C5" s="0">
-        <v>2.2602358276508774</v>
+        <v>2.5759449038832258</v>
       </c>
       <c r="D5" s="0">
-        <v>3.808783824948287</v>
+        <v>4.2783832859463047</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.23276788499545703</v>
+        <v>-0.68317202687365508</v>
       </c>
       <c r="F5" s="0">
-        <v>0.8968363405694646</v>
+        <v>0.59408109991832658</v>
       </c>
       <c r="G5" s="0">
-        <v>1.9544085092816805</v>
+        <v>1.7886411978750965</v>
       </c>
       <c r="H5" s="0">
-        <v>-1.3909880524343501</v>
+        <v>-1.7911535776423477</v>
       </c>
       <c r="I5" s="0">
-        <v>0.12068087916491255</v>
+        <v>0.062813974420435389</v>
       </c>
       <c r="J5" s="0">
-        <v>1.7328241177943857</v>
+        <v>1.8002324306458795</v>
       </c>
       <c r="K5" s="0">
-        <v>-1.1386133486271781</v>
+        <v>-1.1883920897356912</v>
       </c>
       <c r="L5" s="0">
-        <v>0.031191022884007942</v>
+        <v>-0.013879490664503592</v>
       </c>
       <c r="M5" s="0">
-        <v>1.2110143713137234</v>
+        <v>1.1807080111584562</v>
       </c>
       <c r="N5" s="0">
-        <v>-0.78494996234915093</v>
+        <v>-0.78941107539130662</v>
       </c>
       <c r="O5" s="0">
-        <v>-0.018498863441959196</v>
+        <v>0.021755839651993503</v>
       </c>
       <c r="P5" s="0">
-        <v>0.73649603632478422</v>
+        <v>0.8561785423627577</v>
       </c>
       <c r="Q5" s="0">
-        <v>-1.0365061339964006</v>
+        <v>-1.1610127529666954</v>
       </c>
       <c r="R5" s="0">
-        <v>-0.028680216230387384</v>
+        <v>0.012239440670050783</v>
       </c>
       <c r="S5" s="0">
-        <v>1.0811721357441371</v>
+        <v>1.2166061982007519</v>
       </c>
       <c r="T5" s="0">
         <v>94.319999999999993</v>
@@ -443,6 +611,48 @@
         <v>94.319999999999993</v>
       </c>
       <c r="V5" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="W5" s="0">
+        <v>-0.48786529830769215</v>
+      </c>
+      <c r="X5" s="0">
+        <v>0.012084554858283251</v>
+      </c>
+      <c r="Y5" s="0">
+        <v>0.49970795455719119</v>
+      </c>
+      <c r="Z5" s="0">
+        <v>0.78218842718683002</v>
+      </c>
+      <c r="AA5" s="0">
+        <v>-1.1178570741051204</v>
+      </c>
+      <c r="AB5" s="0">
+        <v>-0.74049608822308666</v>
+      </c>
+      <c r="AC5" s="0">
+        <v>-0.052001393262047897</v>
+      </c>
+      <c r="AD5" s="0">
+        <v>0.69423563849929737</v>
+      </c>
+      <c r="AE5" s="0">
+        <v>1.0657455100029061</v>
+      </c>
+      <c r="AF5" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AG5" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AH5" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AI5" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AJ5" s="0">
         <v>94.319999999999993</v>
       </c>
     </row>
@@ -451,58 +661,58 @@
         <v>42186</v>
       </c>
       <c r="B6" s="0">
-        <v>0.46765410353464087</v>
+        <v>0.40534358395673498</v>
       </c>
       <c r="C6" s="0">
-        <v>2.0916945612240578</v>
+        <v>2.4951326928779736</v>
       </c>
       <c r="D6" s="0">
-        <v>3.7895071835183622</v>
+        <v>4.6098880402336846</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.4236519022535184</v>
+        <v>-1.0002552369772091</v>
       </c>
       <c r="F6" s="0">
-        <v>1.0306968089286901</v>
+        <v>0.61046615685400563</v>
       </c>
       <c r="G6" s="0">
-        <v>2.3633051185486282</v>
+        <v>2.1728713150694183</v>
       </c>
       <c r="H6" s="0">
-        <v>-1.8123482600892562</v>
+        <v>-2.1824488789228971</v>
       </c>
       <c r="I6" s="0">
-        <v>0.15553860019444199</v>
+        <v>0.02541525659062048</v>
       </c>
       <c r="J6" s="0">
-        <v>1.9614952511914456</v>
+        <v>2.0865744616697199</v>
       </c>
       <c r="K6" s="0">
-        <v>-1.1076714340358784</v>
+        <v>-1.2878029371890565</v>
       </c>
       <c r="L6" s="0">
-        <v>0.0053591882637038313</v>
+        <v>0.036539147564029525</v>
       </c>
       <c r="M6" s="0">
-        <v>1.1279372137621611</v>
+        <v>1.3359634431223872</v>
       </c>
       <c r="N6" s="0">
-        <v>-0.7799954191882601</v>
+        <v>-0.79850528232042128</v>
       </c>
       <c r="O6" s="0">
-        <v>-0.0074909206234657164</v>
+        <v>0.036461356330547007</v>
       </c>
       <c r="P6" s="0">
-        <v>0.82984689877322704</v>
+        <v>0.85145714609045697</v>
       </c>
       <c r="Q6" s="0">
-        <v>-1.1041462619399762</v>
+        <v>-1.096318534965284</v>
       </c>
       <c r="R6" s="0">
-        <v>-0.010835551905813548</v>
+        <v>-0.024061100482797068</v>
       </c>
       <c r="S6" s="0">
-        <v>1.0351342670987369</v>
+        <v>1.2126258182105523</v>
       </c>
       <c r="T6" s="0">
         <v>94.319999999999993</v>
@@ -511,6 +721,48 @@
         <v>94.319999999999993</v>
       </c>
       <c r="V6" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="W6" s="0">
+        <v>-0.4502607364633292</v>
+      </c>
+      <c r="X6" s="0">
+        <v>0.040668654890867226</v>
+      </c>
+      <c r="Y6" s="0">
+        <v>0.54505829603661327</v>
+      </c>
+      <c r="Z6" s="0">
+        <v>0.79558343624003858</v>
+      </c>
+      <c r="AA6" s="0">
+        <v>-1.1392176894050647</v>
+      </c>
+      <c r="AB6" s="0">
+        <v>-0.77900961207577601</v>
+      </c>
+      <c r="AC6" s="0">
+        <v>-0.017869103839545028</v>
+      </c>
+      <c r="AD6" s="0">
+        <v>0.69593216875146302</v>
+      </c>
+      <c r="AE6" s="0">
+        <v>1.0711486139184658</v>
+      </c>
+      <c r="AF6" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AG6" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AH6" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AI6" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AJ6" s="0">
         <v>94.319999999999993</v>
       </c>
     </row>
@@ -519,58 +771,58 @@
         <v>42278</v>
       </c>
       <c r="B7" s="0">
-        <v>0.098162112530855328</v>
+        <v>0.072730269998497382</v>
       </c>
       <c r="C7" s="0">
-        <v>1.9782531856425829</v>
+        <v>2.4510697177559608</v>
       </c>
       <c r="D7" s="0">
-        <v>3.7245267221514182</v>
+        <v>4.9410708819035092</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.564386616261777</v>
+        <v>-1.305636687447266</v>
       </c>
       <c r="F7" s="0">
-        <v>1.1322969277183068</v>
+        <v>0.52090880723757627</v>
       </c>
       <c r="G7" s="0">
-        <v>2.6900441199145484</v>
+        <v>2.4267628348379953</v>
       </c>
       <c r="H7" s="0">
-        <v>-2.0895751047162614</v>
+        <v>-2.9144932740914378</v>
       </c>
       <c r="I7" s="0">
-        <v>0.10077129646809738</v>
+        <v>-0.02623751938816965</v>
       </c>
       <c r="J7" s="0">
-        <v>2.2964168978661803</v>
+        <v>2.3395699220365263</v>
       </c>
       <c r="K7" s="0">
-        <v>-1.1514643727014449</v>
+        <v>-1.2896435472923908</v>
       </c>
       <c r="L7" s="0">
-        <v>-0.0011892002495166687</v>
+        <v>0.000394332507042901</v>
       </c>
       <c r="M7" s="0">
-        <v>1.1599975706842627</v>
+        <v>1.3151356518643029</v>
       </c>
       <c r="N7" s="0">
-        <v>-0.7882031169439333</v>
+        <v>-0.82480438619607321</v>
       </c>
       <c r="O7" s="0">
-        <v>-0.0076238994057261289</v>
+        <v>-0.026955705801168236</v>
       </c>
       <c r="P7" s="0">
-        <v>0.78700354854234256</v>
+        <v>0.82807360461710577</v>
       </c>
       <c r="Q7" s="0">
-        <v>-1.1840809069814018</v>
+        <v>-1.2078824571197992</v>
       </c>
       <c r="R7" s="0">
-        <v>-0.046945044112651421</v>
+        <v>-0.012771720987627549</v>
       </c>
       <c r="S7" s="0">
-        <v>1.055450121221845</v>
+        <v>1.1977841081098677</v>
       </c>
       <c r="T7" s="0">
         <v>94.319999999999993</v>
@@ -579,6 +831,48 @@
         <v>94.319999999999993</v>
       </c>
       <c r="V7" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="W7" s="0">
+        <v>-0.5421111621214687</v>
+      </c>
+      <c r="X7" s="0">
+        <v>-0.050741221342227735</v>
+      </c>
+      <c r="Y7" s="0">
+        <v>0.51450978353583277</v>
+      </c>
+      <c r="Z7" s="0">
+        <v>0.78389999982241787</v>
+      </c>
+      <c r="AA7" s="0">
+        <v>-1.1210223542276645</v>
+      </c>
+      <c r="AB7" s="0">
+        <v>-0.71146224186115803</v>
+      </c>
+      <c r="AC7" s="0">
+        <v>0.019733331369557947</v>
+      </c>
+      <c r="AD7" s="0">
+        <v>0.71891727166115382</v>
+      </c>
+      <c r="AE7" s="0">
+        <v>1.0996302250944492</v>
+      </c>
+      <c r="AF7" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AG7" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AH7" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AI7" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AJ7" s="0">
         <v>94.319999999999993</v>
       </c>
     </row>
@@ -587,58 +881,58 @@
         <v>42370</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.032390912831757962</v>
+        <v>-0.19420320205500474</v>
       </c>
       <c r="C8" s="0">
-        <v>1.8854554834734676</v>
+        <v>2.288326810817523</v>
       </c>
       <c r="D8" s="0">
-        <v>3.667090190832734</v>
+        <v>5.045874030555682</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.61569399970117367</v>
+        <v>-1.6264049217115355</v>
       </c>
       <c r="F8" s="0">
-        <v>1.1775500126246721</v>
+        <v>0.49180911278974593</v>
       </c>
       <c r="G8" s="0">
-        <v>2.936891922343694</v>
+        <v>2.7986686554518414</v>
       </c>
       <c r="H8" s="0">
-        <v>-2.3737531014336986</v>
+        <v>-3.2791307497723725</v>
       </c>
       <c r="I8" s="0">
-        <v>0.10157723956250075</v>
+        <v>-0.074635406741367122</v>
       </c>
       <c r="J8" s="0">
-        <v>2.5729048420926235</v>
+        <v>2.4483007430507859</v>
       </c>
       <c r="K8" s="0">
-        <v>-1.1405721983113537</v>
+        <v>-1.3475566597149311</v>
       </c>
       <c r="L8" s="0">
-        <v>0.026493025305748187</v>
+        <v>-0.0016640895913886083</v>
       </c>
       <c r="M8" s="0">
-        <v>1.1295083453491617</v>
+        <v>1.3226541554440081</v>
       </c>
       <c r="N8" s="0">
-        <v>-0.81648490765832626</v>
+        <v>-0.79466874212806859</v>
       </c>
       <c r="O8" s="0">
-        <v>-0.012416085396967962</v>
+        <v>0.011686209734042621</v>
       </c>
       <c r="P8" s="0">
-        <v>0.81841005747434203</v>
+        <v>0.80213996111747521</v>
       </c>
       <c r="Q8" s="0">
-        <v>-1.1100896540043197</v>
+        <v>-1.1691986304910733</v>
       </c>
       <c r="R8" s="0">
-        <v>0.0067166907612286261</v>
+        <v>-0.03500809927706984</v>
       </c>
       <c r="S8" s="0">
-        <v>1.1128262491110603</v>
+        <v>1.1610249688097309</v>
       </c>
       <c r="T8" s="0">
         <v>94.319999999999993</v>
@@ -647,6 +941,48 @@
         <v>94.319999999999993</v>
       </c>
       <c r="V8" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="W8" s="0">
+        <v>-0.48928351567298078</v>
+      </c>
+      <c r="X8" s="0">
+        <v>0.0026141639797924803</v>
+      </c>
+      <c r="Y8" s="0">
+        <v>0.49743480785923821</v>
+      </c>
+      <c r="Z8" s="0">
+        <v>0.78039683979582763</v>
+      </c>
+      <c r="AA8" s="0">
+        <v>-1.1572925876176456</v>
+      </c>
+      <c r="AB8" s="0">
+        <v>-0.75453025424522013</v>
+      </c>
+      <c r="AC8" s="0">
+        <v>-0.0076458440810182604</v>
+      </c>
+      <c r="AD8" s="0">
+        <v>0.75880334604028454</v>
+      </c>
+      <c r="AE8" s="0">
+        <v>1.1148476737518664</v>
+      </c>
+      <c r="AF8" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AG8" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AH8" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AI8" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AJ8" s="0">
         <v>94.319999999999993</v>
       </c>
     </row>
@@ -655,58 +991,58 @@
         <v>42461</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.16380609749614172</v>
+        <v>-0.22597748146460656</v>
       </c>
       <c r="C9" s="0">
-        <v>1.7771204417278388</v>
+        <v>2.2918717344086614</v>
       </c>
       <c r="D9" s="0">
-        <v>3.6987265758041419</v>
+        <v>5.0751913142193601</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.76913455959459198</v>
+        <v>-1.7844174100566672</v>
       </c>
       <c r="F9" s="0">
-        <v>1.2712659601170881</v>
+        <v>0.4741756770193325</v>
       </c>
       <c r="G9" s="0">
-        <v>3.0656199431563023</v>
+        <v>2.9092257953786591</v>
       </c>
       <c r="H9" s="0">
-        <v>-2.6480789103282945</v>
+        <v>-3.6255971966802711</v>
       </c>
       <c r="I9" s="0">
-        <v>0.13827260687528836</v>
+        <v>-0.21799704830758793</v>
       </c>
       <c r="J9" s="0">
-        <v>2.8969063703663505</v>
+        <v>2.8025920519344023</v>
       </c>
       <c r="K9" s="0">
-        <v>-1.2213469553819203</v>
+        <v>-1.1536151764517271</v>
       </c>
       <c r="L9" s="0">
-        <v>0.00537800175401451</v>
+        <v>0.04889064039999208</v>
       </c>
       <c r="M9" s="0">
-        <v>1.1466559620008225</v>
+        <v>1.2389902410868396</v>
       </c>
       <c r="N9" s="0">
-        <v>-0.83529277272308178</v>
+        <v>-0.823427218042033</v>
       </c>
       <c r="O9" s="0">
-        <v>0.0090996873331517028</v>
+        <v>-0.0010430074944530465</v>
       </c>
       <c r="P9" s="0">
-        <v>0.83265815150570255</v>
+        <v>0.77188031263041823</v>
       </c>
       <c r="Q9" s="0">
-        <v>-1.1061261160787605</v>
+        <v>-1.2112226710051592</v>
       </c>
       <c r="R9" s="0">
-        <v>0.073603833487749196</v>
+        <v>0.01458604874266237</v>
       </c>
       <c r="S9" s="0">
-        <v>1.144627619540195</v>
+        <v>1.1984486113052182</v>
       </c>
       <c r="T9" s="0">
         <v>94.319999999999993</v>
@@ -715,6 +1051,48 @@
         <v>94.319999999999993</v>
       </c>
       <c r="V9" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="W9" s="0">
+        <v>-0.54130859917358265</v>
+      </c>
+      <c r="X9" s="0">
+        <v>-0.0021520450642820883</v>
+      </c>
+      <c r="Y9" s="0">
+        <v>0.52753816585542967</v>
+      </c>
+      <c r="Z9" s="0">
+        <v>0.81833552593488046</v>
+      </c>
+      <c r="AA9" s="0">
+        <v>-1.035637612675075</v>
+      </c>
+      <c r="AB9" s="0">
+        <v>-0.68454042733405496</v>
+      </c>
+      <c r="AC9" s="0">
+        <v>-0.033395606381455042</v>
+      </c>
+      <c r="AD9" s="0">
+        <v>0.74317582787769587</v>
+      </c>
+      <c r="AE9" s="0">
+        <v>1.0998054373333588</v>
+      </c>
+      <c r="AF9" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AG9" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AH9" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AI9" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AJ9" s="0">
         <v>94.319999999999993</v>
       </c>
     </row>
@@ -723,58 +1101,58 @@
         <v>42552</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.20343045679853367</v>
+        <v>-0.39431131543599279</v>
       </c>
       <c r="C10" s="0">
-        <v>1.7742514889721952</v>
+        <v>2.1686750072065912</v>
       </c>
       <c r="D10" s="0">
-        <v>3.7200927966931561</v>
+        <v>5.069529307537902</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.78610290281439099</v>
+        <v>-2.0712973846712286</v>
       </c>
       <c r="F10" s="0">
-        <v>1.3540411429882639</v>
+        <v>0.38871441339946472</v>
       </c>
       <c r="G10" s="0">
-        <v>3.3196782819874708</v>
+        <v>3.1612469624236037</v>
       </c>
       <c r="H10" s="0">
-        <v>-2.7483136543722235</v>
+        <v>-3.836084178168452</v>
       </c>
       <c r="I10" s="0">
-        <v>0.22656662865084148</v>
+        <v>-0.34728408513633058</v>
       </c>
       <c r="J10" s="0">
-        <v>3.1522465272074118</v>
+        <v>3.2193162192475313</v>
       </c>
       <c r="K10" s="0">
-        <v>-1.1239510671008304</v>
+        <v>-1.2790340259124369</v>
       </c>
       <c r="L10" s="0">
-        <v>0.049906922779191967</v>
+        <v>-0.029579312713050504</v>
       </c>
       <c r="M10" s="0">
-        <v>1.1793082268368702</v>
+        <v>1.2624284484700681</v>
       </c>
       <c r="N10" s="0">
-        <v>-0.78151202769472161</v>
+        <v>-0.81490303133900399</v>
       </c>
       <c r="O10" s="0">
-        <v>0.044748760530409618</v>
+        <v>0.0029630299781578961</v>
       </c>
       <c r="P10" s="0">
-        <v>0.85675051520551504</v>
+        <v>0.87529664012691377</v>
       </c>
       <c r="Q10" s="0">
-        <v>-1.075755483739524</v>
+        <v>-1.1103455448634416</v>
       </c>
       <c r="R10" s="0">
-        <v>0.014664879791745654</v>
+        <v>0.060068376766503923</v>
       </c>
       <c r="S10" s="0">
-        <v>1.1558003913160402</v>
+        <v>1.1972234052937583</v>
       </c>
       <c r="T10" s="0">
         <v>94.319999999999993</v>
@@ -783,6 +1161,48 @@
         <v>94.319999999999993</v>
       </c>
       <c r="V10" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="W10" s="0">
+        <v>-0.53492163541881987</v>
+      </c>
+      <c r="X10" s="0">
+        <v>-0.025860548004504037</v>
+      </c>
+      <c r="Y10" s="0">
+        <v>0.52511570570176191</v>
+      </c>
+      <c r="Z10" s="0">
+        <v>0.74505524622915975</v>
+      </c>
+      <c r="AA10" s="0">
+        <v>-1.1124531887521507</v>
+      </c>
+      <c r="AB10" s="0">
+        <v>-0.80136630775220308</v>
+      </c>
+      <c r="AC10" s="0">
+        <v>0.053919826317382472</v>
+      </c>
+      <c r="AD10" s="0">
+        <v>0.76906510866389888</v>
+      </c>
+      <c r="AE10" s="0">
+        <v>1.1054175986559944</v>
+      </c>
+      <c r="AF10" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AG10" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AH10" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AI10" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AJ10" s="0">
         <v>94.319999999999993</v>
       </c>
     </row>
@@ -791,58 +1211,58 @@
         <v>42644</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.20897018764908182</v>
+        <v>-0.68747715088233019</v>
       </c>
       <c r="C11" s="0">
-        <v>1.5943133860892256</v>
+        <v>2.1312804541242087</v>
       </c>
       <c r="D11" s="0">
-        <v>3.6256989453251234</v>
+        <v>5.0470562578768954</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.89519378675820227</v>
+        <v>-2.4263080090887441</v>
       </c>
       <c r="F11" s="0">
-        <v>1.3719268558600808</v>
+        <v>0.44468535451428054</v>
       </c>
       <c r="G11" s="0">
-        <v>3.4869496524440042</v>
+        <v>3.3413248199346759</v>
       </c>
       <c r="H11" s="0">
-        <v>-2.9650271188852164</v>
+        <v>-4.0882991983128889</v>
       </c>
       <c r="I11" s="0">
-        <v>0.2927648242602402</v>
+        <v>-0.40233573802839584</v>
       </c>
       <c r="J11" s="0">
-        <v>3.403296566686175</v>
+        <v>3.3503410736765753</v>
       </c>
       <c r="K11" s="0">
-        <v>-1.110135235927534</v>
+        <v>-1.2576588412051957</v>
       </c>
       <c r="L11" s="0">
-        <v>0.035094733676666615</v>
+        <v>-0.037507455867957153</v>
       </c>
       <c r="M11" s="0">
-        <v>1.0866853887720613</v>
+        <v>1.24658976929013</v>
       </c>
       <c r="N11" s="0">
-        <v>-0.76890003804316331</v>
+        <v>-0.87762359053485484</v>
       </c>
       <c r="O11" s="0">
-        <v>0.011264926294935626</v>
+        <v>-0.0027794009177120327</v>
       </c>
       <c r="P11" s="0">
-        <v>0.75660576278948422</v>
+        <v>0.88167319512273878</v>
       </c>
       <c r="Q11" s="0">
-        <v>-1.1059252507489261</v>
+        <v>-1.1878285706736742</v>
       </c>
       <c r="R11" s="0">
-        <v>0.024387511039163222</v>
+        <v>-0.0094559486631739416</v>
       </c>
       <c r="S11" s="0">
-        <v>1.1468509058515965</v>
+        <v>1.1878826601181571</v>
       </c>
       <c r="T11" s="0">
         <v>94.319999999999993</v>
@@ -851,6 +1271,48 @@
         <v>94.319999999999993</v>
       </c>
       <c r="V11" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="W11" s="0">
+        <v>-0.51993548259225997</v>
+      </c>
+      <c r="X11" s="0">
+        <v>0.002564354204304696</v>
+      </c>
+      <c r="Y11" s="0">
+        <v>0.55156566770787441</v>
+      </c>
+      <c r="Z11" s="0">
+        <v>0.82721961371228991</v>
+      </c>
+      <c r="AA11" s="0">
+        <v>-1.0812007638851973</v>
+      </c>
+      <c r="AB11" s="0">
+        <v>-0.72076111299062684</v>
+      </c>
+      <c r="AC11" s="0">
+        <v>0.03545832806198726</v>
+      </c>
+      <c r="AD11" s="0">
+        <v>0.75507009999625163</v>
+      </c>
+      <c r="AE11" s="0">
+        <v>1.1329701845911244</v>
+      </c>
+      <c r="AF11" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AG11" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AH11" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AI11" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AJ11" s="0">
         <v>94.319999999999993</v>
       </c>
     </row>
